--- a/2019/2019W17-0422/Steph Curry Stadium Popcorn Rankings.xlsx
+++ b/2019/2019W17-0422/Steph Curry Stadium Popcorn Rankings.xlsx
@@ -1379,8 +1379,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB99A843FEA6A4DB1D729FDF0A09D2A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a716f9c47751248f3ce32f3c65dfede">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65db1ef9-6540-47d7-a852-bae454952b90" xmlns:ns3="971ae857-6480-444e-9afc-50767a43cd0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="feb9b0e84857ef69e86a3f3a6b7c4f29" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB99A843FEA6A4DB1D729FDF0A09D2A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a3a455fb8f85dca39343af24f7f12940">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65db1ef9-6540-47d7-a852-bae454952b90" xmlns:ns3="971ae857-6480-444e-9afc-50767a43cd0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cffb22d3c178a275fb4580b15006340e" ns2:_="" ns3:_="">
     <xsd:import namespace="65db1ef9-6540-47d7-a852-bae454952b90"/>
     <xsd:import namespace="971ae857-6480-444e-9afc-50767a43cd0c"/>
     <xsd:element name="properties">
@@ -1597,7 +1597,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D21FCBDB-C13D-4713-B009-79551A6674E3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B976ABF-22FF-4D1C-9E67-F2DD9FCF58E4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
